--- a/easyexcel-import-validate/src/main/resources/用户.xlsx
+++ b/easyexcel-import-validate/src/main/resources/用户.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_GitHub\easyexcelTest\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_GitHub\java-architect-util\easyexcel-import-validate\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE1948B-D69F-4861-8B63-75E40C86C297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42481F9-CD56-408B-A253-46E55B6BD6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,6 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +117,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -398,12 +401,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
